--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2477,28 +2477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1580.481396030666</v>
+        <v>1825.160262370594</v>
       </c>
       <c r="AB2" t="n">
-        <v>2162.484371967341</v>
+        <v>2497.264791363378</v>
       </c>
       <c r="AC2" t="n">
-        <v>1956.099898572656</v>
+        <v>2258.929344608804</v>
       </c>
       <c r="AD2" t="n">
-        <v>1580481.396030666</v>
+        <v>1825160.262370594</v>
       </c>
       <c r="AE2" t="n">
-        <v>2162484.371967341</v>
+        <v>2497264.791363378</v>
       </c>
       <c r="AF2" t="n">
         <v>3.220321402398381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.73697916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1956099.898572656</v>
+        <v>2258929.344608804</v>
       </c>
     </row>
     <row r="3">
@@ -2583,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>809.9815298495192</v>
+        <v>966.4963849486076</v>
       </c>
       <c r="AB3" t="n">
-        <v>1108.252463003241</v>
+        <v>1322.402992697893</v>
       </c>
       <c r="AC3" t="n">
-        <v>1002.482403376311</v>
+        <v>1196.194707079063</v>
       </c>
       <c r="AD3" t="n">
-        <v>809981.5298495193</v>
+        <v>966496.3849486075</v>
       </c>
       <c r="AE3" t="n">
-        <v>1108252.463003241</v>
+        <v>1322402.992697893</v>
       </c>
       <c r="AF3" t="n">
         <v>5.059506308738946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.02213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1002482.403376311</v>
+        <v>1196194.707079063</v>
       </c>
     </row>
     <row r="4">
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>660.738219005577</v>
+        <v>797.6760315639686</v>
       </c>
       <c r="AB4" t="n">
-        <v>904.0511809563702</v>
+        <v>1091.41553736868</v>
       </c>
       <c r="AC4" t="n">
-        <v>817.7698050896952</v>
+        <v>987.25237029354</v>
       </c>
       <c r="AD4" t="n">
-        <v>660738.219005577</v>
+        <v>797676.0315639686</v>
       </c>
       <c r="AE4" t="n">
-        <v>904051.1809563702</v>
+        <v>1091415.53736868</v>
       </c>
       <c r="AF4" t="n">
         <v>5.764418704353023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>817769.8050896951</v>
+        <v>987252.3702935401</v>
       </c>
     </row>
     <row r="5">
@@ -2795,28 +2795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>585.7095758095836</v>
+        <v>712.8588670976269</v>
       </c>
       <c r="AB5" t="n">
-        <v>801.3936813054846</v>
+        <v>975.3649510766232</v>
       </c>
       <c r="AC5" t="n">
-        <v>724.9097931247843</v>
+        <v>882.2774890791761</v>
       </c>
       <c r="AD5" t="n">
-        <v>585709.5758095836</v>
+        <v>712858.8670976269</v>
       </c>
       <c r="AE5" t="n">
-        <v>801393.6813054846</v>
+        <v>975364.9510766233</v>
       </c>
       <c r="AF5" t="n">
         <v>6.161233274524287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.47526041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>724909.7931247842</v>
+        <v>882277.4890791761</v>
       </c>
     </row>
     <row r="6">
@@ -2901,28 +2901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>552.8443767560955</v>
+        <v>680.0609878518432</v>
       </c>
       <c r="AB6" t="n">
-        <v>756.4260660502493</v>
+        <v>930.4894457522296</v>
       </c>
       <c r="AC6" t="n">
-        <v>684.2338239570641</v>
+        <v>841.6848389997751</v>
       </c>
       <c r="AD6" t="n">
-        <v>552844.3767560954</v>
+        <v>680060.9878518431</v>
       </c>
       <c r="AE6" t="n">
-        <v>756426.0660502494</v>
+        <v>930489.4457522295</v>
       </c>
       <c r="AF6" t="n">
         <v>6.312871406138943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.86328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>684233.8239570642</v>
+        <v>841684.8389997751</v>
       </c>
     </row>
     <row r="7">
@@ -3007,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.9137272765653</v>
+        <v>679.130338372313</v>
       </c>
       <c r="AB7" t="n">
-        <v>755.1527103749988</v>
+        <v>929.2160900769788</v>
       </c>
       <c r="AC7" t="n">
-        <v>683.0819955602936</v>
+        <v>840.5330106030046</v>
       </c>
       <c r="AD7" t="n">
-        <v>551913.7272765653</v>
+        <v>679130.338372313</v>
       </c>
       <c r="AE7" t="n">
-        <v>755152.7103749989</v>
+        <v>929216.0900769789</v>
       </c>
       <c r="AF7" t="n">
         <v>6.327577170890127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>683081.9955602937</v>
+        <v>840533.0106030046</v>
       </c>
     </row>
   </sheetData>
@@ -3304,28 +3304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1139.011739974988</v>
+        <v>1351.881325021024</v>
       </c>
       <c r="AB2" t="n">
-        <v>1558.446112285304</v>
+        <v>1849.70366968859</v>
       </c>
       <c r="AC2" t="n">
-        <v>1409.710202621651</v>
+        <v>1673.170547528915</v>
       </c>
       <c r="AD2" t="n">
-        <v>1139011.739974988</v>
+        <v>1351881.325021024</v>
       </c>
       <c r="AE2" t="n">
-        <v>1558446.112285304</v>
+        <v>1849703.66968859</v>
       </c>
       <c r="AF2" t="n">
         <v>4.196273251754377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.92447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1409710.202621651</v>
+        <v>1673170.547528915</v>
       </c>
     </row>
     <row r="3">
@@ -3410,28 +3410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>663.3205770904241</v>
+        <v>808.494648923265</v>
       </c>
       <c r="AB3" t="n">
-        <v>907.5844772136563</v>
+        <v>1106.218046923383</v>
       </c>
       <c r="AC3" t="n">
-        <v>820.9658885111984</v>
+        <v>1000.642149111794</v>
       </c>
       <c r="AD3" t="n">
-        <v>663320.5770904241</v>
+        <v>808494.648923265</v>
       </c>
       <c r="AE3" t="n">
-        <v>907584.4772136563</v>
+        <v>1106218.046923383</v>
       </c>
       <c r="AF3" t="n">
         <v>6.013480093050324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.56119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>820965.8885111983</v>
+        <v>1000642.149111794</v>
       </c>
     </row>
     <row r="4">
@@ -3516,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.8599887027411</v>
+        <v>676.7071276541467</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.7109387706275</v>
+        <v>925.9005462678715</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.7778246143046</v>
+        <v>837.5338976416436</v>
       </c>
       <c r="AD4" t="n">
-        <v>550859.9887027411</v>
+        <v>676707.1276541466</v>
       </c>
       <c r="AE4" t="n">
-        <v>753710.9387706275</v>
+        <v>925900.5462678715</v>
       </c>
       <c r="AF4" t="n">
         <v>6.705385093009572e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.61197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>681777.8246143046</v>
+        <v>837533.8976416436</v>
       </c>
     </row>
     <row r="5">
@@ -3622,28 +3622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>532.831423774551</v>
+        <v>648.9648591869247</v>
       </c>
       <c r="AB5" t="n">
-        <v>729.0434608717273</v>
+        <v>887.9423506485128</v>
       </c>
       <c r="AC5" t="n">
-        <v>659.4645761850527</v>
+        <v>803.1983789375341</v>
       </c>
       <c r="AD5" t="n">
-        <v>532831.423774551</v>
+        <v>648964.8591869248</v>
       </c>
       <c r="AE5" t="n">
-        <v>729043.4608717273</v>
+        <v>887942.3506485128</v>
       </c>
       <c r="AF5" t="n">
         <v>6.862336475005666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>659464.5761850527</v>
+        <v>803198.3789375342</v>
       </c>
     </row>
     <row r="6">
@@ -3728,28 +3728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.2864320270692</v>
+        <v>650.419867439443</v>
       </c>
       <c r="AB6" t="n">
-        <v>731.0342673532565</v>
+        <v>889.9331571300419</v>
       </c>
       <c r="AC6" t="n">
-        <v>661.2653828900992</v>
+        <v>804.9991856425808</v>
       </c>
       <c r="AD6" t="n">
-        <v>534286.4320270692</v>
+        <v>650419.867439443</v>
       </c>
       <c r="AE6" t="n">
-        <v>731034.2673532565</v>
+        <v>889933.1571300419</v>
       </c>
       <c r="AF6" t="n">
         <v>6.859962420488078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.03255208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>661265.3828900992</v>
+        <v>804999.1856425807</v>
       </c>
     </row>
   </sheetData>
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.4229198862852</v>
+        <v>655.332344434752</v>
       </c>
       <c r="AB2" t="n">
-        <v>717.5385748947913</v>
+        <v>896.6546248782133</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.0577003785467</v>
+        <v>811.0791659425057</v>
       </c>
       <c r="AD2" t="n">
-        <v>524422.9198862852</v>
+        <v>655332.344434752</v>
       </c>
       <c r="AE2" t="n">
-        <v>717538.5748947912</v>
+        <v>896654.6248782133</v>
       </c>
       <c r="AF2" t="n">
         <v>8.480774342981798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>649057.7003785466</v>
+        <v>811079.1659425057</v>
       </c>
     </row>
     <row r="3">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.4807032782929</v>
+        <v>626.355962407979</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.9385572912544</v>
+        <v>857.0078606414287</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.2370528761174</v>
+        <v>775.2162332398968</v>
       </c>
       <c r="AD3" t="n">
-        <v>495480.7032782929</v>
+        <v>626355.962407979</v>
       </c>
       <c r="AE3" t="n">
-        <v>677938.5572912544</v>
+        <v>857007.8606414287</v>
       </c>
       <c r="AF3" t="n">
         <v>8.803304443027471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>613237.0528761174</v>
+        <v>775216.2332398968</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.3311484508757</v>
+        <v>851.4665097974553</v>
       </c>
       <c r="AB2" t="n">
-        <v>944.5415325713342</v>
+        <v>1165.014042756154</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.3958143750924</v>
+        <v>1053.826737622984</v>
       </c>
       <c r="AD2" t="n">
-        <v>690331.1484508758</v>
+        <v>851466.5097974553</v>
       </c>
       <c r="AE2" t="n">
-        <v>944541.5325713342</v>
+        <v>1165014.042756154</v>
       </c>
       <c r="AF2" t="n">
         <v>6.495570745837959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.95963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>854395.8143750924</v>
+        <v>1053826.737622984</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.4353329113408</v>
+        <v>626.6414247738619</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.8224324886822</v>
+        <v>857.3984428441404</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.0821863003175</v>
+        <v>775.5695388253673</v>
       </c>
       <c r="AD3" t="n">
-        <v>503435.3329113408</v>
+        <v>626641.4247738619</v>
       </c>
       <c r="AE3" t="n">
-        <v>688822.4324886822</v>
+        <v>857398.4428441403</v>
       </c>
       <c r="AF3" t="n">
         <v>7.975025304088898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.02864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>623082.1863003175</v>
+        <v>775569.5388253673</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.2487039059204</v>
+        <v>626.9363548670631</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.252881397998</v>
+        <v>857.8019792090558</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.7122555242523</v>
+        <v>775.934562245982</v>
       </c>
       <c r="AD4" t="n">
-        <v>494248.7039059204</v>
+        <v>626936.3548670631</v>
       </c>
       <c r="AE4" t="n">
-        <v>676252.881397998</v>
+        <v>857801.9792090559</v>
       </c>
       <c r="AF4" t="n">
         <v>7.98746037472937e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>611712.2555242523</v>
+        <v>775934.562245982</v>
       </c>
     </row>
   </sheetData>
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.9268006485787</v>
+        <v>631.6612830974557</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.4441950430474</v>
+        <v>864.2668344630006</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.0761876565111</v>
+        <v>781.7824207879717</v>
       </c>
       <c r="AD2" t="n">
-        <v>492926.8006485787</v>
+        <v>631661.2830974556</v>
       </c>
       <c r="AE2" t="n">
-        <v>674444.1950430474</v>
+        <v>864266.8344630005</v>
       </c>
       <c r="AF2" t="n">
         <v>9.50229560897451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.89322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>610076.1876565111</v>
+        <v>781782.4207879717</v>
       </c>
     </row>
     <row r="3">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.0422546163772</v>
+        <v>633.776737065254</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.3386524890317</v>
+        <v>867.1612919089848</v>
       </c>
       <c r="AC3" t="n">
-        <v>612.6944021462471</v>
+        <v>784.4006352777077</v>
       </c>
       <c r="AD3" t="n">
-        <v>495042.2546163772</v>
+        <v>633776.737065254</v>
       </c>
       <c r="AE3" t="n">
-        <v>677338.6524890317</v>
+        <v>867161.2919089848</v>
       </c>
       <c r="AF3" t="n">
         <v>9.502717314722037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>612694.4021462471</v>
+        <v>784400.6352777077</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1236.237811166643</v>
+        <v>1449.800077122052</v>
       </c>
       <c r="AB2" t="n">
-        <v>1691.475112201264</v>
+        <v>1983.680426183676</v>
       </c>
       <c r="AC2" t="n">
-        <v>1530.043101493005</v>
+        <v>1794.36075042167</v>
       </c>
       <c r="AD2" t="n">
-        <v>1236237.811166643</v>
+        <v>1449800.077122052</v>
       </c>
       <c r="AE2" t="n">
-        <v>1691475.112201264</v>
+        <v>1983680.426183676</v>
       </c>
       <c r="AF2" t="n">
         <v>3.926812264490287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1530043.101493005</v>
+        <v>1794360.75042167</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.1028315238368</v>
+        <v>847.6352767797532</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.6480686817642</v>
+        <v>1159.771980719262</v>
       </c>
       <c r="AC3" t="n">
-        <v>868.9651652848082</v>
+        <v>1049.084970629613</v>
       </c>
       <c r="AD3" t="n">
-        <v>702102.8315238368</v>
+        <v>847635.2767797532</v>
       </c>
       <c r="AE3" t="n">
-        <v>960648.0686817643</v>
+        <v>1159771.980719262</v>
       </c>
       <c r="AF3" t="n">
         <v>5.74465219971352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.17317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>868965.1652848083</v>
+        <v>1049084.970629613</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.4820053041241</v>
+        <v>709.3386762501373</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.6633798975761</v>
+        <v>970.5484706592281</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.776208202121</v>
+        <v>877.9206867928444</v>
       </c>
       <c r="AD4" t="n">
-        <v>573482.0053041241</v>
+        <v>709338.6762501373</v>
       </c>
       <c r="AE4" t="n">
-        <v>784663.3798975761</v>
+        <v>970548.470659228</v>
       </c>
       <c r="AF4" t="n">
         <v>6.446098507201952e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.99609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>709776.208202121</v>
+        <v>877920.6867928444</v>
       </c>
     </row>
     <row r="5">
@@ -5658,19 +5658,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>531.430300830187</v>
+        <v>657.612208496154</v>
       </c>
       <c r="AB5" t="n">
-        <v>727.1263826460666</v>
+        <v>899.7740354675273</v>
       </c>
       <c r="AC5" t="n">
-        <v>657.7304612146127</v>
+        <v>813.9008643632959</v>
       </c>
       <c r="AD5" t="n">
-        <v>531430.3008301869</v>
+        <v>657612.2084961541</v>
       </c>
       <c r="AE5" t="n">
-        <v>727126.3826460666</v>
+        <v>899774.0354675272</v>
       </c>
       <c r="AF5" t="n">
         <v>6.703509996188532e-06</v>
@@ -5679,7 +5679,7 @@
         <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>657730.4612146127</v>
+        <v>813900.864363296</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>532.1548569591657</v>
+        <v>658.3367646251329</v>
       </c>
       <c r="AB6" t="n">
-        <v>728.1177523068959</v>
+        <v>900.7654051283565</v>
       </c>
       <c r="AC6" t="n">
-        <v>658.6272159464087</v>
+        <v>814.7976190950917</v>
       </c>
       <c r="AD6" t="n">
-        <v>532154.8569591658</v>
+        <v>658336.7646251329</v>
       </c>
       <c r="AE6" t="n">
-        <v>728117.7523068959</v>
+        <v>900765.4051283565</v>
       </c>
       <c r="AF6" t="n">
         <v>6.708143402990291e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.98046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>658627.2159464087</v>
+        <v>814797.6190950917</v>
       </c>
     </row>
   </sheetData>
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.5791883864552</v>
+        <v>655.4758315512452</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.8604824806213</v>
+        <v>896.8509502812038</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.4485346789913</v>
+        <v>811.2567543245793</v>
       </c>
       <c r="AD2" t="n">
-        <v>508579.1883864552</v>
+        <v>655475.8315512452</v>
       </c>
       <c r="AE2" t="n">
-        <v>695860.4824806213</v>
+        <v>896850.9502812038</v>
       </c>
       <c r="AF2" t="n">
         <v>9.889694662469245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.37760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>629448.5346789913</v>
+        <v>811256.7543245794</v>
       </c>
     </row>
   </sheetData>
@@ -6358,28 +6358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.1161744340682</v>
+        <v>1072.640842731039</v>
       </c>
       <c r="AB2" t="n">
-        <v>1231.578660183695</v>
+        <v>1467.6345225988</v>
       </c>
       <c r="AC2" t="n">
-        <v>1114.038521387268</v>
+        <v>1327.565543599959</v>
       </c>
       <c r="AD2" t="n">
-        <v>900116.1744340681</v>
+        <v>1072640.842731039</v>
       </c>
       <c r="AE2" t="n">
-        <v>1231578.660183695</v>
+        <v>1467634.5225988</v>
       </c>
       <c r="AF2" t="n">
         <v>5.168365652899639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1114038.521387268</v>
+        <v>1327565.543599959</v>
       </c>
     </row>
     <row r="3">
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.9000653286893</v>
+        <v>697.1041128802111</v>
       </c>
       <c r="AB3" t="n">
-        <v>770.1847027809424</v>
+        <v>953.808601305653</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.679355708548</v>
+        <v>862.7784470758203</v>
       </c>
       <c r="AD3" t="n">
-        <v>562900.0653286893</v>
+        <v>697104.1128802111</v>
       </c>
       <c r="AE3" t="n">
-        <v>770184.7027809424</v>
+        <v>953808.601305653</v>
       </c>
       <c r="AF3" t="n">
         <v>6.954734557181727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.84895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>696679.355708548</v>
+        <v>862778.4470758203</v>
       </c>
     </row>
     <row r="4">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>513.5951568758841</v>
+        <v>638.1434408361085</v>
       </c>
       <c r="AB4" t="n">
-        <v>702.72355185677</v>
+        <v>873.136008653642</v>
       </c>
       <c r="AC4" t="n">
-        <v>635.6566023462585</v>
+        <v>789.8051334418224</v>
       </c>
       <c r="AD4" t="n">
-        <v>513595.156875884</v>
+        <v>638143.4408361085</v>
       </c>
       <c r="AE4" t="n">
-        <v>702723.5518567699</v>
+        <v>873136.0086536419</v>
       </c>
       <c r="AF4" t="n">
         <v>7.34740299487636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>635656.6023462585</v>
+        <v>789805.1334418224</v>
       </c>
     </row>
     <row r="5">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>515.53249900904</v>
+        <v>640.0807829692643</v>
       </c>
       <c r="AB5" t="n">
-        <v>705.3743088328566</v>
+        <v>875.7867656297285</v>
       </c>
       <c r="AC5" t="n">
-        <v>638.0543747969081</v>
+        <v>792.2029058924721</v>
       </c>
       <c r="AD5" t="n">
-        <v>515532.49900904</v>
+        <v>640080.7829692643</v>
       </c>
       <c r="AE5" t="n">
-        <v>705374.3088328566</v>
+        <v>875786.7656297286</v>
       </c>
       <c r="AF5" t="n">
         <v>7.343387393614326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.4296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>638054.3747969081</v>
+        <v>792202.9058924721</v>
       </c>
     </row>
   </sheetData>
@@ -6973,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1059.718510239466</v>
+        <v>1252.63883368158</v>
       </c>
       <c r="AB2" t="n">
-        <v>1449.953617190756</v>
+        <v>1713.915714768247</v>
       </c>
       <c r="AC2" t="n">
-        <v>1311.572078988753</v>
+        <v>1550.342004446578</v>
       </c>
       <c r="AD2" t="n">
-        <v>1059718.510239466</v>
+        <v>1252638.83368158</v>
       </c>
       <c r="AE2" t="n">
-        <v>1449953.617190756</v>
+        <v>1713915.714768247</v>
       </c>
       <c r="AF2" t="n">
         <v>4.483471374960204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1311572.078988753</v>
+        <v>1550342.004446578</v>
       </c>
     </row>
     <row r="3">
@@ -7079,28 +7079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.6086677220835</v>
+        <v>771.306693385971</v>
       </c>
       <c r="AB3" t="n">
-        <v>857.353623200758</v>
+        <v>1055.335845540448</v>
       </c>
       <c r="AC3" t="n">
-        <v>775.5289967058445</v>
+        <v>954.6160736152283</v>
       </c>
       <c r="AD3" t="n">
-        <v>626608.6677220835</v>
+        <v>771306.693385971</v>
       </c>
       <c r="AE3" t="n">
-        <v>857353.623200758</v>
+        <v>1055335.845540448</v>
       </c>
       <c r="AF3" t="n">
         <v>6.2993314300241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.98177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>775528.9967058445</v>
+        <v>954616.0736152283</v>
       </c>
     </row>
     <row r="4">
@@ -7185,28 +7185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.4668060095561</v>
+        <v>658.8294964176602</v>
       </c>
       <c r="AB4" t="n">
-        <v>729.912818876747</v>
+        <v>901.4395825046847</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.2509638822248</v>
+        <v>815.4074539288371</v>
       </c>
       <c r="AD4" t="n">
-        <v>533466.8060095561</v>
+        <v>658829.4964176601</v>
       </c>
       <c r="AE4" t="n">
-        <v>729912.818876747</v>
+        <v>901439.5825046847</v>
       </c>
       <c r="AF4" t="n">
         <v>6.945860997862563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>660250.9638822249</v>
+        <v>815407.4539288371</v>
       </c>
     </row>
     <row r="5">
@@ -7291,28 +7291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>528.108242545989</v>
+        <v>653.4709329540931</v>
       </c>
       <c r="AB5" t="n">
-        <v>722.580995942759</v>
+        <v>894.1077595706969</v>
       </c>
       <c r="AC5" t="n">
-        <v>653.6188798387786</v>
+        <v>808.7753698853909</v>
       </c>
       <c r="AD5" t="n">
-        <v>528108.242545989</v>
+        <v>653470.9329540931</v>
       </c>
       <c r="AE5" t="n">
-        <v>722580.9959427591</v>
+        <v>894107.7595706969</v>
       </c>
       <c r="AF5" t="n">
         <v>7.005424023375319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.16276041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>653618.8798387786</v>
+        <v>808775.3698853909</v>
       </c>
     </row>
   </sheetData>
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1456.120542172498</v>
+        <v>1690.394416196226</v>
       </c>
       <c r="AB2" t="n">
-        <v>1992.328365304936</v>
+        <v>2312.872215178084</v>
       </c>
       <c r="AC2" t="n">
-        <v>1802.183342370655</v>
+        <v>2092.134937098029</v>
       </c>
       <c r="AD2" t="n">
-        <v>1456120.542172498</v>
+        <v>1690394.416196226</v>
       </c>
       <c r="AE2" t="n">
-        <v>1992328.365304936</v>
+        <v>2312872.215178085</v>
       </c>
       <c r="AF2" t="n">
         <v>3.439745064981299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1802183.342370655</v>
+        <v>2092134.937098029</v>
       </c>
     </row>
     <row r="3">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>769.7983701864323</v>
+        <v>925.8680791695052</v>
       </c>
       <c r="AB3" t="n">
-        <v>1053.272091196315</v>
+        <v>1266.813552336575</v>
       </c>
       <c r="AC3" t="n">
-        <v>952.7492810892027</v>
+        <v>1145.910644885559</v>
       </c>
       <c r="AD3" t="n">
-        <v>769798.3701864323</v>
+        <v>925868.0791695053</v>
       </c>
       <c r="AE3" t="n">
-        <v>1053272.091196315</v>
+        <v>1266813.552336575</v>
       </c>
       <c r="AF3" t="n">
         <v>5.272339638095977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>952749.2810892026</v>
+        <v>1145910.644885559</v>
       </c>
     </row>
     <row r="4">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.7448405368144</v>
+        <v>764.3903647928303</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.9081849702799</v>
+        <v>1045.872619632429</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.9351932819244</v>
+        <v>946.0560047061506</v>
       </c>
       <c r="AD4" t="n">
-        <v>627744.8405368144</v>
+        <v>764390.3647928303</v>
       </c>
       <c r="AE4" t="n">
-        <v>858908.1849702799</v>
+        <v>1045872.619632429</v>
       </c>
       <c r="AF4" t="n">
         <v>5.98042110288928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.79036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>776935.1932819244</v>
+        <v>946056.0047061506</v>
       </c>
     </row>
     <row r="5">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.2972159131936</v>
+        <v>695.1125853847337</v>
       </c>
       <c r="AB5" t="n">
-        <v>777.5693223161402</v>
+        <v>951.0837055263486</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.3591975196852</v>
+        <v>860.3136115252776</v>
       </c>
       <c r="AD5" t="n">
-        <v>568297.2159131935</v>
+        <v>695112.5853847337</v>
       </c>
       <c r="AE5" t="n">
-        <v>777569.3223161402</v>
+        <v>951083.7055263486</v>
       </c>
       <c r="AF5" t="n">
         <v>6.345660203950545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>703359.1975196851</v>
+        <v>860313.6115252776</v>
       </c>
     </row>
     <row r="6">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>544.6828277111053</v>
+        <v>671.56551699035</v>
       </c>
       <c r="AB6" t="n">
-        <v>745.2590745847618</v>
+        <v>918.8655677258116</v>
       </c>
       <c r="AC6" t="n">
-        <v>674.132594484072</v>
+        <v>831.1703275779834</v>
       </c>
       <c r="AD6" t="n">
-        <v>544682.8277111053</v>
+        <v>671565.51699035</v>
       </c>
       <c r="AE6" t="n">
-        <v>745259.0745847619</v>
+        <v>918865.5677258116</v>
       </c>
       <c r="AF6" t="n">
         <v>6.439431159142151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>674132.5944840719</v>
+        <v>831170.3275779834</v>
       </c>
     </row>
     <row r="7">
@@ -8118,28 +8118,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>545.7572274232019</v>
+        <v>672.6399167024465</v>
       </c>
       <c r="AB7" t="n">
-        <v>746.7291156700223</v>
+        <v>920.3356088110722</v>
       </c>
       <c r="AC7" t="n">
-        <v>675.4623369113707</v>
+        <v>832.5000700052823</v>
       </c>
       <c r="AD7" t="n">
-        <v>545757.2274232019</v>
+        <v>672639.9167024465</v>
       </c>
       <c r="AE7" t="n">
-        <v>746729.1156700223</v>
+        <v>920335.6088110722</v>
       </c>
       <c r="AF7" t="n">
         <v>6.441400103083181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.87630208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>675462.3369113707</v>
+        <v>832500.0700052823</v>
       </c>
     </row>
   </sheetData>
@@ -8415,28 +8415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>760.4490294051154</v>
+        <v>922.1831579951332</v>
       </c>
       <c r="AB2" t="n">
-        <v>1040.479910675512</v>
+        <v>1261.771680618551</v>
       </c>
       <c r="AC2" t="n">
-        <v>941.1779683233671</v>
+        <v>1141.349962327992</v>
       </c>
       <c r="AD2" t="n">
-        <v>760449.0294051154</v>
+        <v>922183.1579951332</v>
       </c>
       <c r="AE2" t="n">
-        <v>1040479.910675513</v>
+        <v>1261771.680618551</v>
       </c>
       <c r="AF2" t="n">
         <v>5.995924748040358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.31380208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>941177.9683233671</v>
+        <v>1141349.962327992</v>
       </c>
     </row>
     <row r="3">
@@ -8521,28 +8521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.88165465776</v>
+        <v>639.0897116690833</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.1695978262316</v>
+        <v>874.4307381538409</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.1099028758272</v>
+        <v>790.9762957756864</v>
       </c>
       <c r="AD3" t="n">
-        <v>505881.6546577599</v>
+        <v>639089.7116690832</v>
       </c>
       <c r="AE3" t="n">
-        <v>692169.5978262315</v>
+        <v>874430.7381538409</v>
       </c>
       <c r="AF3" t="n">
         <v>7.687130213765383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.98307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>626109.9028758272</v>
+        <v>790976.2957756864</v>
       </c>
     </row>
     <row r="4">
@@ -8627,28 +8627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>501.0426608313067</v>
+        <v>634.25071784263</v>
       </c>
       <c r="AB4" t="n">
-        <v>685.5486729915373</v>
+        <v>867.8098133191467</v>
       </c>
       <c r="AC4" t="n">
-        <v>620.1208698148298</v>
+        <v>784.9872627146891</v>
       </c>
       <c r="AD4" t="n">
-        <v>501042.6608313067</v>
+        <v>634250.71784263</v>
       </c>
       <c r="AE4" t="n">
-        <v>685548.6729915373</v>
+        <v>867809.8133191466</v>
       </c>
       <c r="AF4" t="n">
         <v>7.748801530639609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>620120.8698148298</v>
+        <v>784987.2627146891</v>
       </c>
     </row>
   </sheetData>
@@ -8924,28 +8924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.8254422258558</v>
+        <v>715.7379575290728</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.5015295621433</v>
+        <v>979.3042496214327</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.4389274425614</v>
+        <v>885.8408264997092</v>
       </c>
       <c r="AD2" t="n">
-        <v>574825.4422258558</v>
+        <v>715737.9575290728</v>
       </c>
       <c r="AE2" t="n">
-        <v>786501.5295621434</v>
+        <v>979304.2496214327</v>
       </c>
       <c r="AF2" t="n">
         <v>7.747890916803676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>711438.9274425614</v>
+        <v>885840.8264997093</v>
       </c>
     </row>
     <row r="3">
@@ -9030,28 +9030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.1027528028065</v>
+        <v>622.6816545450811</v>
       </c>
       <c r="AB3" t="n">
-        <v>671.9484523091502</v>
+        <v>851.980510524389</v>
       </c>
       <c r="AC3" t="n">
-        <v>607.81863510634</v>
+        <v>770.6686863620972</v>
       </c>
       <c r="AD3" t="n">
-        <v>491102.7528028066</v>
+        <v>622681.6545450811</v>
       </c>
       <c r="AE3" t="n">
-        <v>671948.4523091501</v>
+        <v>851980.5105243891</v>
       </c>
       <c r="AF3" t="n">
         <v>8.50879464922212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>607818.6351063401</v>
+        <v>770668.6863620973</v>
       </c>
     </row>
   </sheetData>
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.3980956107691</v>
+        <v>630.614319650197</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.6667504205872</v>
+        <v>862.8343328856938</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.3231166962649</v>
+        <v>780.4866351506745</v>
       </c>
       <c r="AD2" t="n">
-        <v>500398.0956107691</v>
+        <v>630614.3196501969</v>
       </c>
       <c r="AE2" t="n">
-        <v>684666.7504205871</v>
+        <v>862834.3328856938</v>
       </c>
       <c r="AF2" t="n">
         <v>9.087924603385237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.06640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>619323.1166962649</v>
+        <v>780486.6351506745</v>
       </c>
     </row>
     <row r="3">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.76345866389</v>
+        <v>629.284639091113</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.1159709827972</v>
+        <v>861.015005283389</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.1610432258707</v>
+        <v>778.8409416212914</v>
       </c>
       <c r="AD3" t="n">
-        <v>489763.45866389</v>
+        <v>629284.639091113</v>
       </c>
       <c r="AE3" t="n">
-        <v>670115.9709827972</v>
+        <v>861015.005283389</v>
       </c>
       <c r="AF3" t="n">
         <v>9.149829845348369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.87760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>606161.0432258707</v>
+        <v>778840.9416212915</v>
       </c>
     </row>
   </sheetData>
@@ -16103,28 +16103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.9794354786973</v>
+        <v>682.9464327471286</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.4047564307241</v>
+        <v>934.4374387548036</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.4594603784186</v>
+        <v>845.2560410912267</v>
       </c>
       <c r="AD2" t="n">
-        <v>527979.4354786973</v>
+        <v>682946.4327471287</v>
       </c>
       <c r="AE2" t="n">
-        <v>722404.7564307241</v>
+        <v>934437.4387548036</v>
       </c>
       <c r="AF2" t="n">
         <v>1.022664874903317e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.98828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>653459.4603784186</v>
+        <v>845256.0410912267</v>
       </c>
     </row>
   </sheetData>
@@ -16400,28 +16400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>971.7226001480643</v>
+        <v>1164.062973154847</v>
       </c>
       <c r="AB2" t="n">
-        <v>1329.553730898132</v>
+        <v>1592.722314704395</v>
       </c>
       <c r="AC2" t="n">
-        <v>1202.662988861595</v>
+        <v>1440.715132388815</v>
       </c>
       <c r="AD2" t="n">
-        <v>971722.6001480643</v>
+        <v>1164062.973154847</v>
       </c>
       <c r="AE2" t="n">
-        <v>1329553.730898132</v>
+        <v>1592722.314704395</v>
       </c>
       <c r="AF2" t="n">
         <v>4.812658308846219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1202662.988861595</v>
+        <v>1440715.132388815</v>
       </c>
     </row>
     <row r="3">
@@ -16506,28 +16506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>598.859820639647</v>
+        <v>733.4444281042025</v>
       </c>
       <c r="AB3" t="n">
-        <v>819.3864264298345</v>
+        <v>1003.531023816676</v>
       </c>
       <c r="AC3" t="n">
-        <v>741.1853359074425</v>
+        <v>907.7554313682496</v>
       </c>
       <c r="AD3" t="n">
-        <v>598859.820639647</v>
+        <v>733444.4281042025</v>
       </c>
       <c r="AE3" t="n">
-        <v>819386.4264298344</v>
+        <v>1003531.023816676</v>
       </c>
       <c r="AF3" t="n">
         <v>6.616848411786545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.38932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>741185.3359074425</v>
+        <v>907755.4313682496</v>
       </c>
     </row>
     <row r="4">
@@ -16612,28 +16612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.4305025948772</v>
+        <v>646.3946748672156</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.4442175405533</v>
+        <v>884.4257110737569</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.3541027437304</v>
+        <v>800.0173625081585</v>
       </c>
       <c r="AD4" t="n">
-        <v>521430.5025948773</v>
+        <v>646394.6748672156</v>
       </c>
       <c r="AE4" t="n">
-        <v>713444.2175405533</v>
+        <v>884425.7110737569</v>
       </c>
       <c r="AF4" t="n">
         <v>7.158021928237091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.31901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>645354.1027437304</v>
+        <v>800017.3625081585</v>
       </c>
     </row>
     <row r="5">
@@ -16718,28 +16718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>521.9587994902339</v>
+        <v>646.9229717625722</v>
       </c>
       <c r="AB5" t="n">
-        <v>714.1670566595943</v>
+        <v>885.148550192798</v>
       </c>
       <c r="AC5" t="n">
-        <v>646.0079551117612</v>
+        <v>800.6712148761893</v>
       </c>
       <c r="AD5" t="n">
-        <v>521958.7994902339</v>
+        <v>646922.9717625722</v>
       </c>
       <c r="AE5" t="n">
-        <v>714167.0566595943</v>
+        <v>885148.550192798</v>
       </c>
       <c r="AF5" t="n">
         <v>7.167486897146205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>646007.9551117612</v>
+        <v>800671.2148761894</v>
       </c>
     </row>
   </sheetData>
@@ -17015,28 +17015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1340.529434764195</v>
+        <v>1564.430831583493</v>
       </c>
       <c r="AB2" t="n">
-        <v>1834.171512629144</v>
+        <v>2140.523281589791</v>
       </c>
       <c r="AC2" t="n">
-        <v>1659.120757739703</v>
+        <v>1936.234743838155</v>
       </c>
       <c r="AD2" t="n">
-        <v>1340529.434764195</v>
+        <v>1564430.831583493</v>
       </c>
       <c r="AE2" t="n">
-        <v>1834171.512629143</v>
+        <v>2140523.281589791</v>
       </c>
       <c r="AF2" t="n">
         <v>3.677078019437231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.53776041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1659120.757739703</v>
+        <v>1936234.743838155</v>
       </c>
     </row>
     <row r="3">
@@ -17121,28 +17121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>732.2225513771538</v>
+        <v>887.9354812269509</v>
       </c>
       <c r="AB3" t="n">
-        <v>1001.859198173331</v>
+        <v>1214.912498363459</v>
       </c>
       <c r="AC3" t="n">
-        <v>906.2431624178836</v>
+        <v>1098.96295466005</v>
       </c>
       <c r="AD3" t="n">
-        <v>732222.5513771537</v>
+        <v>887935.4812269509</v>
       </c>
       <c r="AE3" t="n">
-        <v>1001859.198173331</v>
+        <v>1214912.498363459</v>
       </c>
       <c r="AF3" t="n">
         <v>5.490965664680209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.82421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>906243.1624178836</v>
+        <v>1098962.95466005</v>
       </c>
     </row>
     <row r="4">
@@ -17227,28 +17227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>606.4383531477121</v>
+        <v>742.6113056038851</v>
       </c>
       <c r="AB4" t="n">
-        <v>829.7557089486268</v>
+        <v>1016.073550025835</v>
       </c>
       <c r="AC4" t="n">
-        <v>750.5649886560208</v>
+        <v>919.1009164795524</v>
       </c>
       <c r="AD4" t="n">
-        <v>606438.3531477121</v>
+        <v>742611.3056038851</v>
       </c>
       <c r="AE4" t="n">
-        <v>829755.7089486268</v>
+        <v>1016073.550025835</v>
       </c>
       <c r="AF4" t="n">
         <v>6.199818165622481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.41276041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>750564.9886560207</v>
+        <v>919100.9164795524</v>
       </c>
     </row>
     <row r="5">
@@ -17333,28 +17333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.1027860178668</v>
+        <v>666.6408949075651</v>
       </c>
       <c r="AB5" t="n">
-        <v>738.9924594828938</v>
+        <v>912.1274825331525</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.4640563322769</v>
+        <v>825.0753157791495</v>
       </c>
       <c r="AD5" t="n">
-        <v>540102.7860178668</v>
+        <v>666640.8949075651</v>
       </c>
       <c r="AE5" t="n">
-        <v>738992.4594828938</v>
+        <v>912127.4825331524</v>
       </c>
       <c r="AF5" t="n">
         <v>6.553741327022685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.98697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>668464.0563322769</v>
+        <v>825075.3157791495</v>
       </c>
     </row>
     <row r="6">
@@ -17439,28 +17439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>537.8239760395305</v>
+        <v>664.3620849292288</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.8744911365332</v>
+        <v>909.0095141867918</v>
       </c>
       <c r="AC6" t="n">
-        <v>665.6436625087966</v>
+        <v>822.2549219556695</v>
       </c>
       <c r="AD6" t="n">
-        <v>537823.9760395305</v>
+        <v>664362.0849292288</v>
       </c>
       <c r="AE6" t="n">
-        <v>735874.4911365332</v>
+        <v>909009.5141867917</v>
       </c>
       <c r="AF6" t="n">
         <v>6.565312375654105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.94140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>665643.6625087967</v>
+        <v>822254.9219556695</v>
       </c>
     </row>
   </sheetData>
@@ -17736,28 +17736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.9224026227121</v>
+        <v>774.4816243586743</v>
       </c>
       <c r="AB2" t="n">
-        <v>812.6308332755543</v>
+        <v>1059.679926165369</v>
       </c>
       <c r="AC2" t="n">
-        <v>735.0744870822725</v>
+        <v>958.5455612822628</v>
       </c>
       <c r="AD2" t="n">
-        <v>593922.4026227121</v>
+        <v>774481.6243586743</v>
       </c>
       <c r="AE2" t="n">
-        <v>812630.8332755544</v>
+        <v>1059679.926165369</v>
       </c>
       <c r="AF2" t="n">
         <v>1.027459487681172e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>735074.4870822725</v>
+        <v>958545.5612822628</v>
       </c>
     </row>
   </sheetData>
@@ -18033,28 +18033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.2648566892407</v>
+        <v>782.3204170386924</v>
       </c>
       <c r="AB2" t="n">
-        <v>863.7244263621822</v>
+        <v>1070.405308133296</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.2917793550207</v>
+        <v>968.2473278483387</v>
       </c>
       <c r="AD2" t="n">
-        <v>631264.8566892407</v>
+        <v>782320.4170386924</v>
       </c>
       <c r="AE2" t="n">
-        <v>863724.4263621821</v>
+        <v>1070405.308133296</v>
       </c>
       <c r="AF2" t="n">
         <v>7.075334694223959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.61197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>781291.7793550207</v>
+        <v>968247.3278483388</v>
       </c>
     </row>
     <row r="3">
@@ -18139,28 +18139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.2214650155755</v>
+        <v>619.91454739456</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.3203442971923</v>
+        <v>848.1944324448945</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.3915254730678</v>
+        <v>767.2439462607157</v>
       </c>
       <c r="AD3" t="n">
-        <v>497221.4650155755</v>
+        <v>619914.5473945601</v>
       </c>
       <c r="AE3" t="n">
-        <v>680320.3442971923</v>
+        <v>848194.4324448945</v>
       </c>
       <c r="AF3" t="n">
         <v>8.224781318973278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.33463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>615391.5254730678</v>
+        <v>767243.9462607157</v>
       </c>
     </row>
     <row r="4">
@@ -18245,28 +18245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.8918549429378</v>
+        <v>621.5849373219223</v>
       </c>
       <c r="AB4" t="n">
-        <v>682.6058454882119</v>
+        <v>850.4799336359142</v>
       </c>
       <c r="AC4" t="n">
-        <v>617.4589016381375</v>
+        <v>769.3113224257856</v>
       </c>
       <c r="AD4" t="n">
-        <v>498891.8549429378</v>
+        <v>621584.9373219223</v>
       </c>
       <c r="AE4" t="n">
-        <v>682605.845488212</v>
+        <v>850479.9336359142</v>
       </c>
       <c r="AF4" t="n">
         <v>8.224115937424941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.33463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>617458.9016381375</v>
+        <v>769311.3224257856</v>
       </c>
     </row>
   </sheetData>
@@ -18542,28 +18542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>824.5074388026148</v>
+        <v>996.4623364680335</v>
       </c>
       <c r="AB2" t="n">
-        <v>1128.127452470741</v>
+        <v>1363.40372957125</v>
       </c>
       <c r="AC2" t="n">
-        <v>1020.460551743756</v>
+        <v>1233.282391170122</v>
       </c>
       <c r="AD2" t="n">
-        <v>824507.4388026148</v>
+        <v>996462.3364680335</v>
       </c>
       <c r="AE2" t="n">
-        <v>1128127.452470741</v>
+        <v>1363403.72957125</v>
       </c>
       <c r="AF2" t="n">
         <v>5.554213594442235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1020460.551743756</v>
+        <v>1233282.391170122</v>
       </c>
     </row>
     <row r="3">
@@ -18648,28 +18648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.2859192801288</v>
+        <v>659.4329228110128</v>
       </c>
       <c r="AB3" t="n">
-        <v>732.4018099071581</v>
+        <v>902.2652171173634</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.5024091020142</v>
+        <v>816.1542911328671</v>
       </c>
       <c r="AD3" t="n">
-        <v>535285.9192801288</v>
+        <v>659432.9228110127</v>
       </c>
       <c r="AE3" t="n">
-        <v>732401.809907158</v>
+        <v>902265.2171173634</v>
       </c>
       <c r="AF3" t="n">
         <v>7.335211627925979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.29557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>662502.4091020143</v>
+        <v>816154.2911328671</v>
       </c>
     </row>
     <row r="4">
@@ -18754,28 +18754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.2320901847187</v>
+        <v>632.4464135233071</v>
       </c>
       <c r="AB4" t="n">
-        <v>695.3855674081135</v>
+        <v>865.3410845491604</v>
       </c>
       <c r="AC4" t="n">
-        <v>629.0189448344561</v>
+        <v>782.7541459536279</v>
       </c>
       <c r="AD4" t="n">
-        <v>508232.0901847187</v>
+        <v>632446.4135233071</v>
       </c>
       <c r="AE4" t="n">
-        <v>695385.5674081135</v>
+        <v>865341.0845491604</v>
       </c>
       <c r="AF4" t="n">
         <v>7.531026614641341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.61197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>629018.9448344561</v>
+        <v>782754.1459536279</v>
       </c>
     </row>
   </sheetData>
